--- a/BIO247Project/BIO247ProjectArticles/PMC3912837_Data.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/PMC3912837_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D39B5A3A-C765-443F-ABD5-8125594B36B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0604050B-7E7F-49ED-BCD2-058091970298}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D39B5A3A-C765-443F-ABD5-8125594B36B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200D581E-56C8-4636-A053-290DDC73ADFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="386">
   <si>
     <t>Rank Chr	SNP</t>
   </si>
@@ -2278,6 +2278,9 @@
   </si>
   <si>
     <t>Position.bp</t>
+  </si>
+  <si>
+    <t>chrY:154616633..15464382</t>
   </si>
 </sst>
 </file>
@@ -6633,8 +6636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B932B9D-633F-4DD9-B4FA-7849252BFB5C}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7173,7 +7176,7 @@
         <v>133</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C36" s="13">
         <v>154616633</v>
